--- a/medicine/Enfance/Alixe_Sylvestre/Alixe_Sylvestre.xlsx
+++ b/medicine/Enfance/Alixe_Sylvestre/Alixe_Sylvestre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alixe Sylvestre, née le 27 janvier 1950, est une femme de lettres, romancière et journaliste française.
 Sa carrière de journaliste se déroule à L'Est républicain. Elle a publié une douzaine de livres pour l'enfance et la jeunesse sous le nom de Simone Schmitzberger, des contes et, depuis 2018, quatre romans.
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alixe Sylvestre est originaire des Vosges, née de parents paysans dans la région de la forêt de Darney[1].
-Elle obtient une maîtrise de lettres à la faculté de Nancy avant de devenir journaliste pour L'Est Républicain durant 27 années[2]. Ses articles sont signés Simone Schmitzberger comme les premiers livres pour la jeunesse[3] qu'elle publie à partir de 1985 chez les éditeurs Bayard, Nathan et Flammarion.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alixe Sylvestre est originaire des Vosges, née de parents paysans dans la région de la forêt de Darney.
+Elle obtient une maîtrise de lettres à la faculté de Nancy avant de devenir journaliste pour L'Est Républicain durant 27 années. Ses articles sont signés Simone Schmitzberger comme les premiers livres pour la jeunesse qu'elle publie à partir de 1985 chez les éditeurs Bayard, Nathan et Flammarion.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature d'enfance et de jeunesse
-1985 : Simone Schmitzberger (ill. Volker Theinhardt), Chouette soirée, Centurion, coll. « Les Belles histoires de " Pomme d'Api " » (no 155), 33 p. (ISBN 2-227-71112-4).
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1985 : Simone Schmitzberger (ill. Volker Theinhardt), Chouette soirée, Centurion, coll. « Les Belles histoires de " Pomme d'Api " » (no 155), 33 p. (ISBN 2-227-71112-4).
 1986 : Simone Schmitzberger (ill. Colette Camil), Basile le robot, Centurion, coll. « Les Belles histoires de " Pomme d'Api " » (no 168), 34 p. (ISBN 2-227-71122-1). Paru aussi sous le titre Une nounou peu ordinaire..
 1987 : Simone Schmitzberger (ill. Michel Guiré Vaka), Violettes, Dînette et Fête, Centurion, coll. « Les Belles histoires de " Pomme d'Api " » (no 174), 34 p. Paru aussi sous le titre Une bonne raison pour faire la fête..
 1987 : Simone Schmitzberger (ill. Volker Theinhardt), Bonne Nuit, Marmottes !, Centurion, coll. « Les Belles histoires de " Pomme d'Api " » (no 182), 34 p. (ISBN 2-227-71134-5).
@@ -559,16 +578,7 @@
 1999 : Un carton jaune pour deux, Bayard, coll. « Cœur grenadine », 139 p. (ISBN 2-227-75709-4).
 2000 : Simone Schmitzberger (ill. Anne Letuffe), Tu m'aimes, dis ?, Père Castor Flammarion, coll. « Les Trois loups. Chanteloup », 23 p. (ISBN 2-08-166185-3).
 2001 : Simone Schmitzberger, Dernier Été sur l'île, Bayard, coll. « Cœur grenadine », 118 p. (ISBN 2-7470-0389-2).
-2013 : Alixe Sylvestre (ill. Delphine Aubry), Drôle de ménagerie, Girecourt sur Durbion, Éditions des Bestioles, 30 p. (ISBN 978-2-9529232-9-3).
-Contes
-2007 : Alixe (ill. Sidonie Hollard), Les Contes du palais perdu, Épinal, S. Schmitzberger, 144 p.
-2009 : Alixe Schmitzberger (ill. Sidonie Hollard), La neige fond sur ton cœur, La Broque, Les Petites vagues, coll. « Vague à bond », 30 p. (ISBN 978-2-35965-008-2).
-2019 : Alixe Sylvestre (ill. Stéphanie Gysin), Les Filles aux cheveux d'algues, Épinal, S. Schmitzberger, 59 p.
-Romans (sous le nom d'Alixe Sylvestre)
-2018 : Alixe Sylvestre, La Presqu'île aux oisanges, Malzéville, Territoires témoins, coll. « Dépendances », 223 p. (ISBN 978-2-918634-41-6).
-2020 : Alixe Sylvestre, La Femme au chien jaune, Malzéville, Territoires témoins, coll. « Dépendances », 212 p. (ISBN 978-2-918634-48-5).
-2021 : Alixe Sylvestre, Fugue à deux voix, Malzéville, Territoires témoins, coll. « Dépendances », 166 p. (ISBN 978-2-918634-52-2).
-2022 : Alixe Sylvestre, Le Gars de la combe, Malzéville, Territoires témoins, coll. « Dépendances », 194 p. (ISBN 978-2-918634-60-7)[4].</t>
+2013 : Alixe Sylvestre (ill. Delphine Aubry), Drôle de ménagerie, Girecourt sur Durbion, Éditions des Bestioles, 30 p. (ISBN 978-2-9529232-9-3).</t>
         </is>
       </c>
     </row>
@@ -593,13 +603,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Contes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2007 : Alixe (ill. Sidonie Hollard), Les Contes du palais perdu, Épinal, S. Schmitzberger, 144 p.
+2009 : Alixe Schmitzberger (ill. Sidonie Hollard), La neige fond sur ton cœur, La Broque, Les Petites vagues, coll. « Vague à bond », 30 p. (ISBN 978-2-35965-008-2).
+2019 : Alixe Sylvestre (ill. Stéphanie Gysin), Les Filles aux cheveux d'algues, Épinal, S. Schmitzberger, 59 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alixe_Sylvestre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alixe_Sylvestre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans (sous le nom d'Alixe Sylvestre)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2018 : Alixe Sylvestre, La Presqu'île aux oisanges, Malzéville, Territoires témoins, coll. « Dépendances », 223 p. (ISBN 978-2-918634-41-6).
+2020 : Alixe Sylvestre, La Femme au chien jaune, Malzéville, Territoires témoins, coll. « Dépendances », 212 p. (ISBN 978-2-918634-48-5).
+2021 : Alixe Sylvestre, Fugue à deux voix, Malzéville, Territoires témoins, coll. « Dépendances », 166 p. (ISBN 978-2-918634-52-2).
+2022 : Alixe Sylvestre, Le Gars de la combe, Malzéville, Territoires témoins, coll. « Dépendances », 194 p. (ISBN 978-2-918634-60-7).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alixe_Sylvestre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alixe_Sylvestre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2018 : Prix du salon du livre féminin à Hagondange
-2023 : Prix Erckmann-Chatrian pour son roman Le Gars de la combe[5]</t>
+2023 : Prix Erckmann-Chatrian pour son roman Le Gars de la combe</t>
         </is>
       </c>
     </row>
